--- a/biology/Botanique/Herbier_national_du_Cameroun/Herbier_national_du_Cameroun.xlsx
+++ b/biology/Botanique/Herbier_national_du_Cameroun/Herbier_national_du_Cameroun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Herbier national du Cameroun (HNC) est un établissement scientifique public camerounais fondé par René Letouzey à Yaoundé en 1948[1].
-En 1996, l'Herbier était dirigé par Benoît Satabié, avec une équipe constituée de trois chercheurs et d'un technicien. Il comptait environ 70 000 spécimens appartenant à 1 750 genres et 232 familles. La collection complète de plantes était alors estimée à 7 500-8 000 espèces[2].
-Succédant à Gaston Achoundong, Jean-Michel Onana[3] est le chef de l'Herbier national du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Herbier national du Cameroun (HNC) est un établissement scientifique public camerounais fondé par René Letouzey à Yaoundé en 1948.
+En 1996, l'Herbier était dirigé par Benoît Satabié, avec une équipe constituée de trois chercheurs et d'un technicien. Il comptait environ 70 000 spécimens appartenant à 1 750 genres et 232 familles. La collection complète de plantes était alors estimée à 7 500-8 000 espèces.
+Succédant à Gaston Achoundong, Jean-Michel Onana est le chef de l'Herbier national du Cameroun.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Martin Cheek, Jean-Michel Onana et Benedict John Pollard (et al.), The plants of Mount Oku and the Ijim Ridge, Cameroon: a conservation checklist, 2000, en collaboration avec les Jardins botaniques royaux de Kew
 (en) Yvette Harvey (et al.), The plants of Bali Ngemba forest reserve, Cameroon: a conservation checklist, 2004, en collaboration avec les Jardins botaniques royaux de Kew
